--- a/biology/Médecine/Leishmania_donovani/Leishmania_donovani.xlsx
+++ b/biology/Médecine/Leishmania_donovani/Leishmania_donovani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leishmania donovani est une espèce de parasite responsable d'une maladie très grave, mortelle à 95 % sans soins : la leishmaniose viscérale ou « kala-azar », ou encore « maladie noire »[1]. Elle sévit en Inde, en Chine du Nord, en Mandchourie et au Soudan égyptien. Le germe est transmis par le phlébotome dans l'intestin duquel il a la forme leptomonas. Inoculé lors de la piqûre par régurgitation de salive, il se transforme en leishmania et envahit les cellules du système réticulo-endothélial[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leishmania donovani est une espèce de parasite responsable d'une maladie très grave, mortelle à 95 % sans soins : la leishmaniose viscérale ou « kala-azar », ou encore « maladie noire ». Elle sévit en Inde, en Chine du Nord, en Mandchourie et au Soudan égyptien. Le germe est transmis par le phlébotome dans l'intestin duquel il a la forme leptomonas. Inoculé lors de la piqûre par régurgitation de salive, il se transforme en leishmania et envahit les cellules du système réticulo-endothélial.
 La maladie est caractérisée par une fièvre irrégulière accompagnée d'une inflammation considérable du foie et de la rate. Le malade meurt d'une cirrhose en cachexie complète.
 </t>
         </is>
